--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itga1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.51459892396623</v>
+        <v>6.5816815</v>
       </c>
       <c r="H2">
-        <v>6.51459892396623</v>
+        <v>13.163363</v>
       </c>
       <c r="I2">
-        <v>0.08323049209816677</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J2">
-        <v>0.08323049209816677</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N2">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O2">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P2">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q2">
-        <v>355.3942561792121</v>
+        <v>368.2349276812863</v>
       </c>
       <c r="R2">
-        <v>355.3942561792121</v>
+        <v>1472.939710725145</v>
       </c>
       <c r="S2">
-        <v>0.03615795647868428</v>
+        <v>0.03264077175157417</v>
       </c>
       <c r="T2">
-        <v>0.03615795647868428</v>
+        <v>0.02003364183863243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.51459892396623</v>
+        <v>6.5816815</v>
       </c>
       <c r="H3">
-        <v>6.51459892396623</v>
+        <v>13.163363</v>
       </c>
       <c r="I3">
-        <v>0.08323049209816677</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J3">
-        <v>0.08323049209816677</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N3">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O3">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P3">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q3">
-        <v>13.27899751325807</v>
+        <v>15.535743260038</v>
       </c>
       <c r="R3">
-        <v>13.27899751325807</v>
+        <v>93.21445956022799</v>
       </c>
       <c r="S3">
-        <v>0.00135101061938048</v>
+        <v>0.001377106329741919</v>
       </c>
       <c r="T3">
-        <v>0.00135101061938048</v>
+        <v>0.001267821814710895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.51459892396623</v>
+        <v>6.5816815</v>
       </c>
       <c r="H4">
-        <v>6.51459892396623</v>
+        <v>13.163363</v>
       </c>
       <c r="I4">
-        <v>0.08323049209816677</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J4">
-        <v>0.08323049209816677</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N4">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O4">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P4">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q4">
-        <v>4.901621746646996</v>
+        <v>17.319444763353</v>
       </c>
       <c r="R4">
-        <v>4.901621746646996</v>
+        <v>103.916668580118</v>
       </c>
       <c r="S4">
-        <v>0.00049869299435403</v>
+        <v>0.001535215703041337</v>
       </c>
       <c r="T4">
-        <v>0.00049869299435403</v>
+        <v>0.001413383931629519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.51459892396623</v>
+        <v>6.5816815</v>
       </c>
       <c r="H5">
-        <v>6.51459892396623</v>
+        <v>13.163363</v>
       </c>
       <c r="I5">
-        <v>0.08323049209816677</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J5">
-        <v>0.08323049209816677</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N5">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O5">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P5">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q5">
-        <v>2.467932240963659</v>
+        <v>2.810873820506333</v>
       </c>
       <c r="R5">
-        <v>2.467932240963659</v>
+        <v>16.865242923038</v>
       </c>
       <c r="S5">
-        <v>0.0002510884320992169</v>
+        <v>0.0002491591207150043</v>
       </c>
       <c r="T5">
-        <v>0.0002510884320992169</v>
+        <v>0.0002293863311454447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.51459892396623</v>
+        <v>6.5816815</v>
       </c>
       <c r="H6">
-        <v>6.51459892396623</v>
+        <v>13.163363</v>
       </c>
       <c r="I6">
-        <v>0.08323049209816677</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J6">
-        <v>0.08323049209816677</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N6">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O6">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P6">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q6">
-        <v>289.9313432721516</v>
+        <v>307.764981879186</v>
       </c>
       <c r="R6">
-        <v>289.9313432721516</v>
+        <v>1846.589891275116</v>
       </c>
       <c r="S6">
-        <v>0.02949773303751589</v>
+        <v>0.02728064551046767</v>
       </c>
       <c r="T6">
-        <v>0.02949773303751589</v>
+        <v>0.02511570584680099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.51459892396623</v>
+        <v>6.5816815</v>
       </c>
       <c r="H7">
-        <v>6.51459892396623</v>
+        <v>13.163363</v>
       </c>
       <c r="I7">
-        <v>0.08323049209816677</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J7">
-        <v>0.08323049209816677</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N7">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O7">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P7">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q7">
-        <v>152.0930660957073</v>
+        <v>157.5926999805693</v>
       </c>
       <c r="R7">
-        <v>152.0930660957073</v>
+        <v>630.370799922277</v>
       </c>
       <c r="S7">
-        <v>0.01547401053613288</v>
+        <v>0.01396919999460845</v>
       </c>
       <c r="T7">
-        <v>0.01547401053613288</v>
+        <v>0.008573754064216184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.6297596459858</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H8">
-        <v>52.6297596459858</v>
+        <v>169.658168</v>
       </c>
       <c r="I8">
-        <v>0.6723976173312529</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J8">
-        <v>0.6723976173312529</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N8">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O8">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P8">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q8">
-        <v>2871.138269689247</v>
+        <v>3164.037600625286</v>
       </c>
       <c r="R8">
-        <v>2871.138269689247</v>
+        <v>18984.22560375172</v>
       </c>
       <c r="S8">
-        <v>0.2921107778043517</v>
+        <v>0.280463968439181</v>
       </c>
       <c r="T8">
-        <v>0.2921107778043517</v>
+        <v>0.2582068862425605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.6297596459858</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H9">
-        <v>52.6297596459858</v>
+        <v>169.658168</v>
       </c>
       <c r="I9">
-        <v>0.6723976173312529</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J9">
-        <v>0.6723976173312529</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N9">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O9">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P9">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q9">
-        <v>107.2775861751636</v>
+        <v>133.4899873239787</v>
       </c>
       <c r="R9">
-        <v>107.2775861751636</v>
+        <v>1201.409885915808</v>
       </c>
       <c r="S9">
-        <v>0.01091446534269216</v>
+        <v>0.01183270754569421</v>
       </c>
       <c r="T9">
-        <v>0.01091446534269216</v>
+        <v>0.0163405298808736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.6297596459858</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H10">
-        <v>52.6297596459858</v>
+        <v>169.658168</v>
       </c>
       <c r="I10">
-        <v>0.6723976173312529</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J10">
-        <v>0.6723976173312529</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N10">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O10">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P10">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q10">
-        <v>39.59893424175836</v>
+        <v>148.816340693872</v>
       </c>
       <c r="R10">
-        <v>39.59893424175836</v>
+        <v>1339.347066244848</v>
       </c>
       <c r="S10">
-        <v>0.004028811709871213</v>
+        <v>0.01319125331233491</v>
       </c>
       <c r="T10">
-        <v>0.004028811709871213</v>
+        <v>0.01821663115428037</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>52.6297596459858</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H11">
-        <v>52.6297596459858</v>
+        <v>169.658168</v>
       </c>
       <c r="I11">
-        <v>0.6723976173312529</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J11">
-        <v>0.6723976173312529</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N11">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O11">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P11">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q11">
-        <v>19.93778622144534</v>
+        <v>24.15227288377422</v>
       </c>
       <c r="R11">
-        <v>19.93778622144534</v>
+        <v>217.370455953968</v>
       </c>
       <c r="S11">
-        <v>0.002028478496604637</v>
+        <v>0.002140885525023683</v>
       </c>
       <c r="T11">
-        <v>0.002028478496604637</v>
+        <v>0.002956483438645389</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.6297596459858</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H12">
-        <v>52.6297596459858</v>
+        <v>169.658168</v>
       </c>
       <c r="I12">
-        <v>0.6723976173312529</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J12">
-        <v>0.6723976173312529</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N12">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O12">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P12">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q12">
-        <v>2342.280328895692</v>
+        <v>2644.453042391264</v>
       </c>
       <c r="R12">
-        <v>2342.280328895692</v>
+        <v>23800.07738152138</v>
       </c>
       <c r="S12">
-        <v>0.2383045553510062</v>
+        <v>0.2344073896193736</v>
       </c>
       <c r="T12">
-        <v>0.2383045553510062</v>
+        <v>0.3237079036713599</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.6297596459858</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H13">
-        <v>52.6297596459858</v>
+        <v>169.658168</v>
       </c>
       <c r="I13">
-        <v>0.6723976173312529</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J13">
-        <v>0.6723976173312529</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N13">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O13">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P13">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q13">
-        <v>1228.720540721288</v>
+        <v>1354.106280635478</v>
       </c>
       <c r="R13">
-        <v>1228.720540721288</v>
+        <v>8124.637683812871</v>
       </c>
       <c r="S13">
-        <v>0.125010528626727</v>
+        <v>0.1200295537197133</v>
       </c>
       <c r="T13">
-        <v>0.125010528626727</v>
+        <v>0.1105042387281633</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08782855237732159</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H14">
-        <v>0.08782855237732159</v>
+        <v>0.167125</v>
       </c>
       <c r="I14">
-        <v>0.001122097264920124</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J14">
-        <v>0.001122097264920124</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N14">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O14">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P14">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q14">
-        <v>4.7913560616302</v>
+        <v>3.116795319895834</v>
       </c>
       <c r="R14">
-        <v>4.7913560616302</v>
+        <v>18.700771919375</v>
       </c>
       <c r="S14">
-        <v>0.000487474518617272</v>
+        <v>0.0002762763577960958</v>
       </c>
       <c r="T14">
-        <v>0.000487474518617272</v>
+        <v>0.0002543515963421692</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08782855237732159</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H15">
-        <v>0.08782855237732159</v>
+        <v>0.167125</v>
       </c>
       <c r="I15">
-        <v>0.001122097264920124</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J15">
-        <v>0.001122097264920124</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N15">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O15">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P15">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q15">
-        <v>0.1790248551328247</v>
+        <v>0.1314968468333333</v>
       </c>
       <c r="R15">
-        <v>0.1790248551328247</v>
+        <v>1.1834716215</v>
       </c>
       <c r="S15">
-        <v>1.821406172988697E-05</v>
+        <v>1.165603325726201E-05</v>
       </c>
       <c r="T15">
-        <v>1.821406172988697E-05</v>
+        <v>1.609654924684204E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08782855237732159</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H16">
-        <v>0.08782855237732159</v>
+        <v>0.167125</v>
       </c>
       <c r="I16">
-        <v>0.001122097264920124</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J16">
-        <v>0.001122097264920124</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N16">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O16">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P16">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q16">
-        <v>0.06608270859552855</v>
+        <v>0.14659436225</v>
       </c>
       <c r="R16">
-        <v>0.06608270859552855</v>
+        <v>1.31934926025</v>
       </c>
       <c r="S16">
-        <v>6.723281707135422E-06</v>
+        <v>1.299429456189797E-05</v>
       </c>
       <c r="T16">
-        <v>6.723281707135422E-06</v>
+        <v>1.7944638431196E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08782855237732159</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H17">
-        <v>0.08782855237732159</v>
+        <v>0.167125</v>
       </c>
       <c r="I17">
-        <v>0.001122097264920124</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J17">
-        <v>0.001122097264920124</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N17">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O17">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P17">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q17">
-        <v>0.03327218123770424</v>
+        <v>0.02379165502777777</v>
       </c>
       <c r="R17">
-        <v>0.03327218123770424</v>
+        <v>0.21412489525</v>
       </c>
       <c r="S17">
-        <v>3.385125280519869E-06</v>
+        <v>2.108919939354662E-06</v>
       </c>
       <c r="T17">
-        <v>3.385125280519869E-06</v>
+        <v>2.912340151425016E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.08782855237732159</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H18">
-        <v>0.08782855237732159</v>
+        <v>0.167125</v>
       </c>
       <c r="I18">
-        <v>0.001122097264920124</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J18">
-        <v>0.001122097264920124</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N18">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O18">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P18">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q18">
-        <v>3.908797834771719</v>
+        <v>2.6049686845</v>
       </c>
       <c r="R18">
-        <v>3.908797834771719</v>
+        <v>23.4447181605</v>
       </c>
       <c r="S18">
-        <v>0.0003976826848951144</v>
+        <v>0.0002309074502686945</v>
       </c>
       <c r="T18">
-        <v>0.0003976826848951144</v>
+        <v>0.000318874617348668</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.08782855237732159</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H19">
-        <v>0.08782855237732159</v>
+        <v>0.167125</v>
       </c>
       <c r="I19">
-        <v>0.001122097264920124</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J19">
-        <v>0.001122097264920124</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N19">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O19">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P19">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q19">
-        <v>2.050489059682826</v>
+        <v>1.333888104645833</v>
       </c>
       <c r="R19">
-        <v>2.050489059682826</v>
+        <v>8.003328627875</v>
       </c>
       <c r="S19">
-        <v>0.0002086175926901955</v>
+        <v>0.0001182373911134481</v>
       </c>
       <c r="T19">
-        <v>0.0002086175926901955</v>
+        <v>0.0001088542987063511</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.85525001844211</v>
+        <v>0.09863033333333333</v>
       </c>
       <c r="H20">
-        <v>4.85525001844211</v>
+        <v>0.295891</v>
       </c>
       <c r="I20">
-        <v>0.0620306565317366</v>
+        <v>0.001154670603587511</v>
       </c>
       <c r="J20">
-        <v>0.0620306565317366</v>
+        <v>0.001273033365425305</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N20">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O20">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P20">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q20">
-        <v>264.8709443217419</v>
+        <v>5.518215012710834</v>
       </c>
       <c r="R20">
-        <v>264.8709443217419</v>
+        <v>33.109290076265</v>
       </c>
       <c r="S20">
-        <v>0.02694807783394262</v>
+        <v>0.0004891409889881501</v>
       </c>
       <c r="T20">
-        <v>0.02694807783394262</v>
+        <v>0.0004503236989874692</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.85525001844211</v>
+        <v>0.09863033333333333</v>
       </c>
       <c r="H21">
-        <v>4.85525001844211</v>
+        <v>0.295891</v>
       </c>
       <c r="I21">
-        <v>0.0620306565317366</v>
+        <v>0.001154670603587511</v>
       </c>
       <c r="J21">
-        <v>0.0620306565317366</v>
+        <v>0.001273033365425305</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N21">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O21">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P21">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q21">
-        <v>9.89667263842645</v>
+        <v>0.2328121675773333</v>
       </c>
       <c r="R21">
-        <v>9.89667263842645</v>
+        <v>2.095309508196</v>
       </c>
       <c r="S21">
-        <v>0.001006891508014587</v>
+        <v>2.063674098144809E-05</v>
       </c>
       <c r="T21">
-        <v>0.001006891508014587</v>
+        <v>2.849857324276642E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.85525001844211</v>
+        <v>0.09863033333333333</v>
       </c>
       <c r="H22">
-        <v>4.85525001844211</v>
+        <v>0.295891</v>
       </c>
       <c r="I22">
-        <v>0.0620306565317366</v>
+        <v>0.001154670603587511</v>
       </c>
       <c r="J22">
-        <v>0.0620306565317366</v>
+        <v>0.001273033365425305</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N22">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O22">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P22">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q22">
-        <v>3.653118074276623</v>
+        <v>0.259541974214</v>
       </c>
       <c r="R22">
-        <v>3.653118074276623</v>
+        <v>2.335877767926</v>
       </c>
       <c r="S22">
-        <v>0.0003716697218499258</v>
+        <v>2.300610209253285E-05</v>
       </c>
       <c r="T22">
-        <v>0.0003716697218499258</v>
+        <v>3.177057298456254E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.85525001844211</v>
+        <v>0.09863033333333333</v>
       </c>
       <c r="H23">
-        <v>4.85525001844211</v>
+        <v>0.295891</v>
       </c>
       <c r="I23">
-        <v>0.0620306565317366</v>
+        <v>0.001154670603587511</v>
       </c>
       <c r="J23">
-        <v>0.0620306565317366</v>
+        <v>0.001273033365425305</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N23">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O23">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P23">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q23">
-        <v>1.839319380717535</v>
+        <v>0.04212258248511111</v>
       </c>
       <c r="R23">
-        <v>1.839319380717535</v>
+        <v>0.379103242366</v>
       </c>
       <c r="S23">
-        <v>0.0001871331034816968</v>
+        <v>3.733794643384235E-06</v>
       </c>
       <c r="T23">
-        <v>0.0001871331034816968</v>
+        <v>5.156231801018994E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.85525001844211</v>
+        <v>0.09863033333333333</v>
       </c>
       <c r="H24">
-        <v>4.85525001844211</v>
+        <v>0.295891</v>
       </c>
       <c r="I24">
-        <v>0.0620306565317366</v>
+        <v>0.001154670603587511</v>
       </c>
       <c r="J24">
-        <v>0.0620306565317366</v>
+        <v>0.001273033365425305</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N24">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O24">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P24">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q24">
-        <v>216.08224484709</v>
+        <v>4.612037630668</v>
       </c>
       <c r="R24">
-        <v>216.08224484709</v>
+        <v>41.508338676012</v>
       </c>
       <c r="S24">
-        <v>0.02198429566362386</v>
+        <v>0.0004088163731784849</v>
       </c>
       <c r="T24">
-        <v>0.02198429566362386</v>
+        <v>0.0005645602357631398</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.85525001844211</v>
+        <v>0.09863033333333333</v>
       </c>
       <c r="H25">
-        <v>4.85525001844211</v>
+        <v>0.295891</v>
       </c>
       <c r="I25">
-        <v>0.0620306565317366</v>
+        <v>0.001154670603587511</v>
       </c>
       <c r="J25">
-        <v>0.0620306565317366</v>
+        <v>0.001273033365425305</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.3464972856855</v>
+        <v>23.9441395</v>
       </c>
       <c r="N25">
-        <v>23.3464972856855</v>
+        <v>47.888279</v>
       </c>
       <c r="O25">
-        <v>0.1859175663395328</v>
+        <v>0.1812955167067658</v>
       </c>
       <c r="P25">
-        <v>0.1859175663395328</v>
+        <v>0.1513896319457121</v>
       </c>
       <c r="Q25">
-        <v>113.3530813768832</v>
+        <v>2.361618460264833</v>
       </c>
       <c r="R25">
-        <v>113.3530813768832</v>
+        <v>14.169710761589</v>
       </c>
       <c r="S25">
-        <v>0.01153258870082391</v>
+        <v>0.000209336603703511</v>
       </c>
       <c r="T25">
-        <v>0.01153258870082391</v>
+        <v>0.0001927240526463481</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.1843447475603</v>
+        <v>4.885647333333334</v>
       </c>
       <c r="H26">
-        <v>14.1843447475603</v>
+        <v>14.656942</v>
       </c>
       <c r="I26">
-        <v>0.1812191367739234</v>
+        <v>0.0571965354332749</v>
       </c>
       <c r="J26">
-        <v>0.1812191367739234</v>
+        <v>0.06305962736650829</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.5535128604418</v>
+        <v>55.9484575</v>
       </c>
       <c r="N26">
-        <v>54.5535128604418</v>
+        <v>111.896915</v>
       </c>
       <c r="O26">
-        <v>0.434431607541591</v>
+        <v>0.4236195045309116</v>
       </c>
       <c r="P26">
-        <v>0.434431607541591</v>
+        <v>0.3537406883573876</v>
       </c>
       <c r="Q26">
-        <v>773.8058336029709</v>
+        <v>273.3444321889884</v>
       </c>
       <c r="R26">
-        <v>773.8058336029709</v>
+        <v>1640.06659313393</v>
       </c>
       <c r="S26">
-        <v>0.078727320905995</v>
+        <v>0.02422956800112864</v>
       </c>
       <c r="T26">
-        <v>0.078727320905995</v>
+        <v>0.022306755992189</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.1843447475603</v>
+        <v>4.885647333333334</v>
       </c>
       <c r="H27">
-        <v>14.1843447475603</v>
+        <v>14.656942</v>
       </c>
       <c r="I27">
-        <v>0.1812191367739234</v>
+        <v>0.0571965354332749</v>
       </c>
       <c r="J27">
-        <v>0.1812191367739234</v>
+        <v>0.06305962736650829</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.03834459622781</v>
+        <v>2.360452</v>
       </c>
       <c r="N27">
-        <v>2.03834459622781</v>
+        <v>7.081356</v>
       </c>
       <c r="O27">
-        <v>0.01623215945650088</v>
+        <v>0.01787240527067255</v>
       </c>
       <c r="P27">
-        <v>0.01623215945650088</v>
+        <v>0.02238635217015337</v>
       </c>
       <c r="Q27">
-        <v>28.91258246722186</v>
+        <v>11.53233601926133</v>
       </c>
       <c r="R27">
-        <v>28.91258246722186</v>
+        <v>103.791024173352</v>
       </c>
       <c r="S27">
-        <v>0.002941577924683768</v>
+        <v>0.001022239661341872</v>
       </c>
       <c r="T27">
-        <v>0.002941577924683768</v>
+        <v>0.001411675025945295</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.1843447475603</v>
+        <v>4.885647333333334</v>
       </c>
       <c r="H28">
-        <v>14.1843447475603</v>
+        <v>14.656942</v>
       </c>
       <c r="I28">
-        <v>0.1812191367739234</v>
+        <v>0.0571965354332749</v>
       </c>
       <c r="J28">
-        <v>0.1812191367739234</v>
+        <v>0.06305962736650829</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.752405758797317</v>
+        <v>2.631462</v>
       </c>
       <c r="N28">
-        <v>0.752405758797317</v>
+        <v>7.894386</v>
       </c>
       <c r="O28">
-        <v>0.005991710270868556</v>
+        <v>0.01992438537973851</v>
       </c>
       <c r="P28">
-        <v>0.005991710270868556</v>
+        <v>0.02495659096409337</v>
       </c>
       <c r="Q28">
-        <v>10.67238267283084</v>
+        <v>12.856395303068</v>
       </c>
       <c r="R28">
-        <v>10.67238267283084</v>
+        <v>115.707557727612</v>
       </c>
       <c r="S28">
-        <v>0.001085812563086251</v>
+        <v>0.001139605814358438</v>
       </c>
       <c r="T28">
-        <v>0.001085812563086251</v>
+        <v>0.001573753326534096</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.1843447475603</v>
+        <v>4.885647333333334</v>
       </c>
       <c r="H29">
-        <v>14.1843447475603</v>
+        <v>14.656942</v>
       </c>
       <c r="I29">
-        <v>0.1812191367739234</v>
+        <v>0.0571965354332749</v>
       </c>
       <c r="J29">
-        <v>0.1812191367739234</v>
+        <v>0.06305962736650829</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.378831033156087</v>
+        <v>0.4270753333333333</v>
       </c>
       <c r="N29">
-        <v>0.378831033156087</v>
+        <v>1.281226</v>
       </c>
       <c r="O29">
-        <v>0.003016784182929844</v>
+        <v>0.003233644843632026</v>
       </c>
       <c r="P29">
-        <v>0.003016784182929844</v>
+        <v>0.004050350871437182</v>
       </c>
       <c r="Q29">
-        <v>5.373469975360385</v>
+        <v>2.086539463432445</v>
       </c>
       <c r="R29">
-        <v>5.373469975360385</v>
+        <v>18.778855170892</v>
       </c>
       <c r="S29">
-        <v>0.0005466990254637722</v>
+        <v>0.0001849532818774258</v>
       </c>
       <c r="T29">
-        <v>0.0005466990254637722</v>
+        <v>0.0002554136166564408</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.1843447475603</v>
+        <v>4.885647333333334</v>
       </c>
       <c r="H30">
-        <v>14.1843447475603</v>
+        <v>14.656942</v>
       </c>
       <c r="I30">
-        <v>0.1812191367739234</v>
+        <v>0.0571965354332749</v>
       </c>
       <c r="J30">
-        <v>0.1812191367739234</v>
+        <v>0.06305962736650829</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.5048646364917</v>
+        <v>46.760844</v>
       </c>
       <c r="N30">
-        <v>44.5048646364917</v>
+        <v>140.282532</v>
       </c>
       <c r="O30">
-        <v>0.354410172208577</v>
+        <v>0.3540545432682795</v>
       </c>
       <c r="P30">
-        <v>0.354410172208577</v>
+        <v>0.4434763856912163</v>
       </c>
       <c r="Q30">
-        <v>631.2723429475031</v>
+        <v>228.456992793016</v>
       </c>
       <c r="R30">
-        <v>631.2723429475031</v>
+        <v>2056.112935137144</v>
       </c>
       <c r="S30">
-        <v>0.06422590547153587</v>
+        <v>0.02025069322935611</v>
       </c>
       <c r="T30">
-        <v>0.06422590547153587</v>
+        <v>0.02796545562753401</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.885647333333334</v>
+      </c>
+      <c r="H31">
+        <v>14.656942</v>
+      </c>
+      <c r="I31">
+        <v>0.0571965354332749</v>
+      </c>
+      <c r="J31">
+        <v>0.06305962736650829</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.9441395</v>
+      </c>
+      <c r="N31">
+        <v>47.888279</v>
+      </c>
+      <c r="O31">
+        <v>0.1812955167067658</v>
+      </c>
+      <c r="P31">
+        <v>0.1513896319457121</v>
+      </c>
+      <c r="Q31">
+        <v>116.9826212971363</v>
+      </c>
+      <c r="R31">
+        <v>701.895727782818</v>
+      </c>
+      <c r="S31">
+        <v>0.01036947544521241</v>
+      </c>
+      <c r="T31">
+        <v>0.009546573777649442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>17.2441985</v>
+      </c>
+      <c r="H32">
+        <v>34.488397</v>
+      </c>
+      <c r="I32">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J32">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>55.9484575</v>
+      </c>
+      <c r="N32">
+        <v>111.896915</v>
+      </c>
+      <c r="O32">
+        <v>0.4236195045309116</v>
+      </c>
+      <c r="P32">
+        <v>0.3537406883573876</v>
+      </c>
+      <c r="Q32">
+        <v>964.7863068988138</v>
+      </c>
+      <c r="R32">
+        <v>3859.145227595255</v>
+      </c>
+      <c r="S32">
+        <v>0.0855197789922435</v>
+      </c>
+      <c r="T32">
+        <v>0.05248872898867602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>17.2441985</v>
+      </c>
+      <c r="H33">
+        <v>34.488397</v>
+      </c>
+      <c r="I33">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J33">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.360452</v>
+      </c>
+      <c r="N33">
+        <v>7.081356</v>
+      </c>
+      <c r="O33">
+        <v>0.01787240527067255</v>
+      </c>
+      <c r="P33">
+        <v>0.02238635217015337</v>
+      </c>
+      <c r="Q33">
+        <v>40.704102837722</v>
+      </c>
+      <c r="R33">
+        <v>244.224617026332</v>
+      </c>
+      <c r="S33">
+        <v>0.003608058959655843</v>
+      </c>
+      <c r="T33">
+        <v>0.003321730326133968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>17.2441985</v>
+      </c>
+      <c r="H34">
+        <v>34.488397</v>
+      </c>
+      <c r="I34">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J34">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.631462</v>
+      </c>
+      <c r="N34">
+        <v>7.894386</v>
+      </c>
+      <c r="O34">
+        <v>0.01992438537973851</v>
+      </c>
+      <c r="P34">
+        <v>0.02495659096409337</v>
+      </c>
+      <c r="Q34">
+        <v>45.377453073207</v>
+      </c>
+      <c r="R34">
+        <v>272.264718439242</v>
+      </c>
+      <c r="S34">
+        <v>0.004022310153349394</v>
+      </c>
+      <c r="T34">
+        <v>0.003703107340233626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>17.2441985</v>
+      </c>
+      <c r="H35">
+        <v>34.488397</v>
+      </c>
+      <c r="I35">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J35">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4270753333333333</v>
+      </c>
+      <c r="N35">
+        <v>1.281226</v>
+      </c>
+      <c r="O35">
+        <v>0.003233644843632026</v>
+      </c>
+      <c r="P35">
+        <v>0.004050350871437182</v>
+      </c>
+      <c r="Q35">
+        <v>7.364571822453666</v>
+      </c>
+      <c r="R35">
+        <v>44.18743093472199</v>
+      </c>
+      <c r="S35">
+        <v>0.0006528042014331742</v>
+      </c>
+      <c r="T35">
+        <v>0.0006009989130374634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>14.1843447475603</v>
-      </c>
-      <c r="H31">
-        <v>14.1843447475603</v>
-      </c>
-      <c r="I31">
-        <v>0.1812191367739234</v>
-      </c>
-      <c r="J31">
-        <v>0.1812191367739234</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>23.3464972856855</v>
-      </c>
-      <c r="N31">
-        <v>23.3464972856855</v>
-      </c>
-      <c r="O31">
-        <v>0.1859175663395328</v>
-      </c>
-      <c r="P31">
-        <v>0.1859175663395328</v>
-      </c>
-      <c r="Q31">
-        <v>331.1547661481439</v>
-      </c>
-      <c r="R31">
-        <v>331.1547661481439</v>
-      </c>
-      <c r="S31">
-        <v>0.03369182088315877</v>
-      </c>
-      <c r="T31">
-        <v>0.03369182088315877</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>17.2441985</v>
+      </c>
+      <c r="H36">
+        <v>34.488397</v>
+      </c>
+      <c r="I36">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J36">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>46.760844</v>
+      </c>
+      <c r="N36">
+        <v>140.282532</v>
+      </c>
+      <c r="O36">
+        <v>0.3540545432682795</v>
+      </c>
+      <c r="P36">
+        <v>0.4434763856912163</v>
+      </c>
+      <c r="Q36">
+        <v>806.353275963534</v>
+      </c>
+      <c r="R36">
+        <v>4838.119655781204</v>
+      </c>
+      <c r="S36">
+        <v>0.07147609108563494</v>
+      </c>
+      <c r="T36">
+        <v>0.06580388569240958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>17.2441985</v>
+      </c>
+      <c r="H37">
+        <v>34.488397</v>
+      </c>
+      <c r="I37">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J37">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.9441395</v>
+      </c>
+      <c r="N37">
+        <v>47.888279</v>
+      </c>
+      <c r="O37">
+        <v>0.1812955167067658</v>
+      </c>
+      <c r="P37">
+        <v>0.1513896319457121</v>
+      </c>
+      <c r="Q37">
+        <v>412.8974944496907</v>
+      </c>
+      <c r="R37">
+        <v>1651.589977798763</v>
+      </c>
+      <c r="S37">
+        <v>0.0365997135524147</v>
+      </c>
+      <c r="T37">
+        <v>0.02246348702433043</v>
       </c>
     </row>
   </sheetData>
